--- a/Test Data/TC_29_30_Verify_Add_Unit_Details_For_Pro215S_Pro215D_Pro815D_Pro885D.xlsx
+++ b/Test Data/TC_29_30_Verify_Add_Unit_Details_For_Pro215S_Pro215D_Pro815D_Pro885D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC29EB4-A2F8-4F3C-A4AD-EEABC2D0E63E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082765AE-FD25-44F6-AC25-6EDBC20A3476}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="49">
   <si>
     <t>Color Codes</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Other Slot Cards  (2 of 3)</t>
+  </si>
+  <si>
+    <t>VerifyAddUnitDetails</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,11 +671,13 @@
       <c r="N2" s="2"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
         <v>4</v>
@@ -888,11 +893,11 @@
       <c r="L10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>20</v>
+      <c r="M10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="O10" s="14" t="s">
         <v>47</v>
@@ -944,11 +949,11 @@
       <c r="L11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>20</v>
+      <c r="M11" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>37</v>
@@ -1000,11 +1005,11 @@
       <c r="L12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="14" t="s">
-        <v>20</v>
+      <c r="M12" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>41</v>
@@ -1056,11 +1061,11 @@
       <c r="L13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>20</v>
+      <c r="M13" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14" t="b">
+        <v>0</v>
       </c>
       <c r="O13" s="14" t="s">
         <v>41</v>

--- a/Test Data/TC_29_30_Verify_Add_Unit_Details_For_Pro215S_Pro215D_Pro815D_Pro885D.xlsx
+++ b/Test Data/TC_29_30_Verify_Add_Unit_Details_For_Pro215S_Pro215D_Pro815D_Pro885D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082765AE-FD25-44F6-AC25-6EDBC20A3476}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7985884-E81D-4EFA-BEFD-37147A40C549}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,7 +621,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10" s="14" t="s">
         <v>15</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
         <v>2</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>15</v>

--- a/Test Data/TC_29_30_Verify_Add_Unit_Details_For_Pro215S_Pro215D_Pro815D_Pro885D.xlsx
+++ b/Test Data/TC_29_30_Verify_Add_Unit_Details_For_Pro215S_Pro215D_Pro815D_Pro885D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7985884-E81D-4EFA-BEFD-37147A40C549}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AFAE5C-E847-45A1-8F82-4B5225D2457C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="53">
   <si>
     <t>Color Codes</t>
   </si>
@@ -175,10 +175,22 @@
     <t>Other Slot Cards  (0 of 3)</t>
   </si>
   <si>
-    <t>Other Slot Cards  (2 of 3)</t>
-  </si>
-  <si>
     <t>VerifyAddUnitDetails</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (2 of 3</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (2 of 4</t>
+  </si>
+  <si>
+    <t>Other Slot Cards  (1 of 4</t>
+  </si>
+  <si>
+    <t>IOB800(x2)</t>
+  </si>
+  <si>
+    <t>AttachedFunctionality</t>
   </si>
 </sst>
 </file>
@@ -621,7 +633,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
@@ -778,7 +790,7 @@
         <v>36</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>13</v>
@@ -834,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>20</v>
@@ -900,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>20</v>
@@ -944,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="14" t="s">
         <v>15</v>
@@ -956,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="P11" s="14" t="s">
         <v>20</v>
@@ -1012,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="P12" s="14" t="s">
         <v>20</v>
@@ -1047,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5">
         <v>0</v>
@@ -1068,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>20</v>
